--- a/inst/extdata/toyFiles/FROC/frocLocatClass.xlsx
+++ b/inst/extdata/toyFiles/FROC/frocLocatClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafroc/inst/extdata/toyFiles/FROC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE38B02E-0F51-404B-811B-FE2A86B7E4A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31636A6-9ABB-AB45-8A6A-266BC5D91FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16780" yWindow="460" windowWidth="10000" windowHeight="9560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16780" yWindow="500" windowWidth="10000" windowHeight="9560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TP" sheetId="1" r:id="rId1"/>
@@ -52,12 +52,6 @@
     <t>ModalityID</t>
   </si>
   <si>
-    <t>NL_Rating</t>
-  </si>
-  <si>
-    <t>LL_Rating</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -149,6 +143,12 @@
   </si>
   <si>
     <t>FCTRL</t>
+  </si>
+  <si>
+    <t>FP_Rating</t>
+  </si>
+  <si>
+    <t>TP_Rating</t>
   </si>
 </sst>
 </file>
@@ -300,21 +300,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1636,15 +1627,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="8.83203125" style="1"/>
     <col min="6" max="7" width="10.6640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="4"/>
+    <col min="8" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1661,128 +1652,128 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1803,7 +1794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1812,7 +1803,7 @@
     <col min="1" max="4" width="8.83203125" style="1"/>
     <col min="5" max="5" width="10.6640625" style="1" customWidth="1"/>
     <col min="6" max="7" width="8.83203125" style="1"/>
-    <col min="8" max="16384" width="8.83203125" style="4"/>
+    <col min="8" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -1826,180 +1817,180 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2026,22 +2017,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" style="5"/>
+    <col min="1" max="3" width="8.83203125" style="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.83203125" style="1"/>
-    <col min="7" max="7" width="8.83203125" style="7"/>
-    <col min="8" max="16384" width="8.83203125" style="4"/>
+    <col min="7" max="7" width="8.83203125" style="4"/>
+    <col min="8" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2051,177 +2042,177 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G3" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>17</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>17</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="7" t="s">
-        <v>26</v>
+        <v>8</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F9" s="4"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F10" s="4"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F11" s="4"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F12" s="4"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F13" s="4"/>
+      <c r="F13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
